--- a/biology/Botanique/Scopolamine/Scopolamine.xlsx
+++ b/biology/Botanique/Scopolamine/Scopolamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La scopolamine ou tropate de scopine ou hyoscine est un alcaloïde tropanique présent chez les solanacées vireuses, proche de l'atropine sur le plan chimique, isolée par E. Schmidt en 1892. Elle est particulièrement abondante chez le Datura et le Brugmansia, notamment dans les graines, ainsi que dans les feuilles de Duboisia.
@@ -516,13 +528,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médecine
-La scopolamine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scopolamine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 La scopolamine est utilisée comme spasmolytique et anticholinergique. Elle est indiquée pour les spasmes, les troubles de la motilité gastro-intestinale et la constipation spasmodique.
-La scopolamine, tout comme l'atropine, a été utilisée pour lutter contre la maladie de Parkinson avant d'être remplacée par les anti-parkinsoniens de synthèse tels que la L-Dopa[5]. Actuellement, elle est utilisée dans le traitement symptomatique de certaines douleurs digestives et gynécologiques, en soins palliatifs, ainsi que dans la prévention du mal des transports (par son action sur l'area postrema)[6] sous forme de patchs transdermiques, délivrés uniquement sur ordonnance médicale. Notamment lors des vols Zero-G afin de réduire les effets du mal des transports provoqués par la micropesanteur sur le corps humain[7].
-Escroquerie
-Elle est utilisée sous le nom de « burundanga », notamment par des bandes d'escrocs en Colombie, pour dépouiller ou violer des victimes qui, sous son effet, perdent leur volonté et se laissent faire, oubliant ensuite ce qui s'est passé[8],[9]. Elle a aussi été utilisée de la même façon en France en 2015[10].
-L'utilisation de la scopolamine dans ces escroqueries a donné lieu à des canulars sur le web circulant par courriel et alertant sur de possibles contaminations par le biais de cartes de visites « empoisonnées »[11],[12].
+La scopolamine, tout comme l'atropine, a été utilisée pour lutter contre la maladie de Parkinson avant d'être remplacée par les anti-parkinsoniens de synthèse tels que la L-Dopa. Actuellement, elle est utilisée dans le traitement symptomatique de certaines douleurs digestives et gynécologiques, en soins palliatifs, ainsi que dans la prévention du mal des transports (par son action sur l'area postrema) sous forme de patchs transdermiques, délivrés uniquement sur ordonnance médicale. Notamment lors des vols Zero-G afin de réduire les effets du mal des transports provoqués par la micropesanteur sur le corps humain.
 </t>
         </is>
       </c>
@@ -548,12 +562,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Composés proches</t>
+          <t>Utilisations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>butylscopolamine, scopolamine substituée par un groupement butyle, commercialisée sous le nom de Buscopan en Suisse et en Belgique[13].</t>
+          <t>Escroquerie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée sous le nom de « burundanga », notamment par des bandes d'escrocs en Colombie, pour dépouiller ou violer des victimes qui, sous son effet, perdent leur volonté et se laissent faire, oubliant ensuite ce qui s'est passé,. Elle a aussi été utilisée de la même façon en France en 2015.
+L'utilisation de la scopolamine dans ces escroqueries a donné lieu à des canulars sur le web circulant par courriel et alertant sur de possibles contaminations par le biais de cartes de visites « empoisonnées »,.
+</t>
         </is>
       </c>
     </row>
@@ -578,13 +600,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Composés proches</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>butylscopolamine, scopolamine substituée par un groupement butyle, commercialisée sous le nom de Buscopan en Suisse et en Belgique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Scopolamine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scopolamine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Littérature
-La Ceinture d'Hippolyte (The Girdle of Hyppolita) : nouvelle policière d'Agatha Christie présentant une collégienne droguée à la scopolamine.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Ceinture d'Hippolyte (The Girdle of Hyppolita) : nouvelle policière d'Agatha Christie présentant une collégienne droguée à la scopolamine.
 Philip Kerr y fait référence à la scopolamine dans son roman La Trilogie berlinoise : "Qu'est ce que c'est ? m'enquis-je avec une certaine appréhension. De la scopolamine, dit-il en frottant mon bras avec un tampon imbibé d'alcool chirurgical".
 Dans le roman de Frederick Forsyth, "L'alternative du diable" ("The devil's alternative"), la scopolamine est citée dans le chap. XIX : "Il s'agissait d'un mélange de deux narcotiques que les Anglais appellent péthadène et hyacine et les Américains mépéridine et scopolamine. En combinaison, ils ont des effets remarquables".
 Alistair MacLean y fait souvent référence dans ses romans sur la Seconde Guerre mondiale, utilisée comme sérum de vérité (Quand les aigles attaquent, Les Canons de Navarone…).
@@ -592,9 +651,43 @@
 Laura Kasischke dans son roman Les revenants, base son intrigue sur l'utilisation de la scopolamine à des fins amnésiantes pour maquiller un crime.
 Dans le tome 5 du Sorceleur d'Andrzej Sapkowski, un distillat à base de mandragore et de datura contenant de la scopolamine est consommé par la compagnie de Geralt, ce qui leur fait révéler plusieurs informations confidentielles au barbier produisant cet alcool, et alors qu'ils viennent juste de le rencontrer.
 Elle est également citée dans le roman Adieu ma Jolie de Raymond Chandler.
-Ian Rankin dans son roman Traqués (Blood Hunt), paru aux éditions du Masque en 2007, cite le burundanga. Son héros l'utilise sur un directeur d'agence de détectives afin de le contraindre à lui révéler toutes sortes d'informations.
-Séries télévisées
-La scopolamine, surnommée « drogue du zombie », joue un rôle central dans l'épisode « Morts Vivants » (4-22) de la série télévisée policière Castle : un homme sous l'emprise de cette substance est contraint d'en assassiner un autre, qu'il ne connaît même pas, à l'instigation d'un troisième. Il perd ensuite conscience ; et une fois revenu « d'entre les morts », ne conservera aucun souvenir de ce qu'il a commis.
+Ian Rankin dans son roman Traqués (Blood Hunt), paru aux éditions du Masque en 2007, cite le burundanga. Son héros l'utilise sur un directeur d'agence de détectives afin de le contraindre à lui révéler toutes sortes d'informations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Scopolamine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scopolamine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans la fiction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La scopolamine, surnommée « drogue du zombie », joue un rôle central dans l'épisode « Morts Vivants » (4-22) de la série télévisée policière Castle : un homme sous l'emprise de cette substance est contraint d'en assassiner un autre, qu'il ne connaît même pas, à l'instigation d'un troisième. Il perd ensuite conscience ; et une fois revenu « d'entre les morts », ne conservera aucun souvenir de ce qu'il a commis.
 Dans l'épisode 4 de la saison 1 de la série Chérif, de la scopolamine est injectée dans des bouteilles de vin.
 Dans l'épisode 18 de la saison 3 de la série Dr.House, la scopolamine est mentionnée en tant que médicament contre le mal des transports.
 Dans l'épisode 21 de la saison 10 de la série Esprits Criminels, le tueur surnommé « Mr. Scratch », se sert d'une solution, mélange de scopolamine et de sévoflurane pour prendre le contrôle de l'esprit de ses victimes et les faire halluciner. Dans un épisode de la série dérivée Esprits criminels : Unité sans frontières, l'équipe intervient justement en Colombie et est confrontée à un groupe d'enfants qui utilisent la scopolamine pour détrousser des voyageurs comme expliqué plus haut.
@@ -616,9 +709,43 @@
 Dans la série "Astrid et Raphaëlle", l’épisode «puzzle» de la saison 1 , l´utilisation de la scopolamine est le lien entre plusieurs affaires criminelles classées comme suicide.
 La scopolamine est citée dans l’épisode 2 de la saison 4 de la série « Les demoiselles du téléphone ».
 Dans la saison 4 de Riverdale, Donna utilise de la scopolamine afin que Betty pense qu'elle a tué Jughead.
-Dans la série Mentiras sur Netflix deux jeunes femmes sont violées après avoir bu des boissons dans lesquelles un homme avait versé de la scopolamine.
-Jeux vidéo
-La scopolamine est utilisée dans le jeu Far Cry 5, sécrétée par une fleur appelée « Bliss ».</t>
+Dans la série Mentiras sur Netflix deux jeunes femmes sont violées après avoir bu des boissons dans lesquelles un homme avait versé de la scopolamine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Scopolamine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scopolamine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la fiction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La scopolamine est utilisée dans le jeu Far Cry 5, sécrétée par une fleur appelée « Bliss ».</t>
         </is>
       </c>
     </row>
